--- a/inst/extdata/performance_subtable_for_posession_status_on_user_health_by_all.xlsx
+++ b/inst/extdata/performance_subtable_for_posession_status_on_user_health_by_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\R\dmcda\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFC939-C013-49DD-9CA8-6BB0AF7CA53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED9C20A-FD13-4AD0-B983-61F953E512E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>all</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>posession_status</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Scorer4</t>
@@ -515,7 +512,7 @@
   <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -563,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -578,16 +575,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -620,16 +617,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F5" s="7">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -4658,239 +4655,239 @@
     </row>
     <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
